--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1668666.74</v>
+        <v>1767400.35</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238380.96</v>
+        <v>220925.04</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24151.94</v>
+        <v>26019.11</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>368703.23</v>
+        <v>369042.75</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>537935.96</v>
+        <v>535953.66</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>255871.48</v>
+        <v>253656.29</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>302749.81</v>
+        <v>300853.33</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40083.01</v>
+        <v>24338.75</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139171.31</v>
+        <v>138744.37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>118792.09</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,108 +436,143 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1767400.35</v>
+        <v>27023.32</v>
+      </c>
+      <c r="C2" t="n">
+        <v>27202.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220925.04</v>
+        <v>370281.76</v>
+      </c>
+      <c r="C3" t="n">
+        <v>370309.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26019.11</v>
+        <v>533986.58</v>
+      </c>
+      <c r="C4" t="n">
+        <v>538018.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>369042.75</v>
+        <v>121643.75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>124900.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>535953.66</v>
+        <v>257956.89</v>
+      </c>
+      <c r="C6" t="n">
+        <v>256290.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>253656.29</v>
+        <v>300021.27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>301155.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>300853.33</v>
+        <v>11216.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9540.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24338.75</v>
+        <v>139885.34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>138994.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138744.37</v>
+        <v>220251.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>220801.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118792.09</v>
+        <v>1762015.21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1766411.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,131 +443,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27023.32</v>
-      </c>
-      <c r="C2" t="n">
-        <v>27202.22</v>
+        <v>2034666.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>370281.76</v>
-      </c>
-      <c r="C3" t="n">
-        <v>370309.86</v>
+        <v>226074.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533986.58</v>
-      </c>
-      <c r="C4" t="n">
-        <v>538018.11</v>
+        <v>27202.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>121643.75</v>
-      </c>
-      <c r="C5" t="n">
-        <v>124900.04</v>
+        <v>370309.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257956.89</v>
-      </c>
-      <c r="C6" t="n">
-        <v>256290.21</v>
+        <v>538018.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>300021.27</v>
-      </c>
-      <c r="C7" t="n">
-        <v>301155.97</v>
+        <v>268255.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11216.3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9540.9</v>
+        <v>124900.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>139885.34</v>
-      </c>
-      <c r="C9" t="n">
-        <v>138994.33</v>
+        <v>256290.21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220251.9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>220801.45</v>
+        <v>301155.97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1762015.21</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1766411.64</v>
+        <v>9540.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>HF Acciones Lideres</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>138994.33</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,115 +439,151 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2034666.84</v>
+        <v>27202.22</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26329.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>226074.09</v>
+        <v>370309.86</v>
+      </c>
+      <c r="C3" t="n">
+        <v>368466.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27202.22</v>
+        <v>538018.11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>534458.55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370309.86</v>
+        <v>268255.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>269384.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>538018.11</v>
+        <v>124900.04</v>
+      </c>
+      <c r="C6" t="n">
+        <v>118364.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268255.2</v>
-      </c>
+        <v>256290.21</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124900.04</v>
+        <v>301155.97</v>
+      </c>
+      <c r="C8" t="n">
+        <v>303089.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>256290.21</v>
+        <v>9540.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>301155.97</v>
+        <v>138994.33</v>
+      </c>
+      <c r="C10" t="n">
+        <v>139293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9540.9</v>
+        <v>226074.09</v>
+      </c>
+      <c r="C11" t="n">
+        <v>219923.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138994.33</v>
+        <v>2034666.84</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1759386.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>26329.59</v>
       </c>
+      <c r="D2" t="n">
+        <v>28279.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>368466.44</v>
       </c>
+      <c r="D3" t="n">
+        <v>369500.23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>534458.55</v>
       </c>
+      <c r="D4" t="n">
+        <v>538751.42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>269384.72</v>
       </c>
+      <c r="D5" t="n">
+        <v>298438.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>118364.76</v>
       </c>
+      <c r="D6" t="n">
+        <v>123710.84</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -520,6 +540,9 @@
         <v>256290.21</v>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>256763.52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -533,6 +556,9 @@
       <c r="C8" t="n">
         <v>303089.32</v>
       </c>
+      <c r="D8" t="n">
+        <v>303045.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -559,6 +588,9 @@
       <c r="C10" t="n">
         <v>139293</v>
       </c>
+      <c r="D10" t="n">
+        <v>109499.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -572,6 +604,9 @@
       <c r="C11" t="n">
         <v>219923.3</v>
       </c>
+      <c r="D11" t="n">
+        <v>225332</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -584,6 +619,9 @@
       </c>
       <c r="C12" t="n">
         <v>1759386.38</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2027988.02</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>28279.66</v>
       </c>
+      <c r="E2" t="n">
+        <v>29223.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>369500.23</v>
       </c>
+      <c r="E3" t="n">
+        <v>368557.64</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>538751.42</v>
       </c>
+      <c r="E4" t="n">
+        <v>535852.67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>298438.25</v>
       </c>
+      <c r="E5" t="n">
+        <v>298496.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -528,6 +545,9 @@
       </c>
       <c r="D6" t="n">
         <v>123710.84</v>
+      </c>
+      <c r="E6" t="n">
+        <v>126553.3</v>
       </c>
     </row>
     <row r="7">
@@ -543,6 +563,9 @@
       <c r="D7" t="n">
         <v>256763.52</v>
       </c>
+      <c r="E7" t="n">
+        <v>251890.73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -559,6 +582,9 @@
       <c r="D8" t="n">
         <v>303045.01</v>
       </c>
+      <c r="E8" t="n">
+        <v>302876.54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -575,6 +601,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -591,6 +620,9 @@
       <c r="D10" t="n">
         <v>109499.09</v>
       </c>
+      <c r="E10" t="n">
+        <v>109205.58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -607,6 +639,9 @@
       <c r="D11" t="n">
         <v>225332</v>
       </c>
+      <c r="E11" t="n">
+        <v>224739.63</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -622,6 +657,9 @@
       </c>
       <c r="D12" t="n">
         <v>2027988.02</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2022656.65</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>29223.95</v>
       </c>
+      <c r="F2" t="n">
+        <v>26168.58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>368557.64</v>
       </c>
+      <c r="F3" t="n">
+        <v>370370.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>535852.67</v>
       </c>
+      <c r="F4" t="n">
+        <v>535984.59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>298496.24</v>
       </c>
+      <c r="F5" t="n">
+        <v>297343.22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -548,6 +565,9 @@
       </c>
       <c r="E6" t="n">
         <v>126553.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>121388.06</v>
       </c>
     </row>
     <row r="7">
@@ -566,6 +586,9 @@
       <c r="E7" t="n">
         <v>251890.73</v>
       </c>
+      <c r="F7" t="n">
+        <v>253715.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -585,6 +608,9 @@
       <c r="E8" t="n">
         <v>302876.54</v>
       </c>
+      <c r="F8" t="n">
+        <v>303770.63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -604,6 +630,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -623,6 +652,9 @@
       <c r="E10" t="n">
         <v>109205.58</v>
       </c>
+      <c r="F10" t="n">
+        <v>107734.36</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -642,6 +674,9 @@
       <c r="E11" t="n">
         <v>224739.63</v>
       </c>
+      <c r="F11" t="n">
+        <v>224052.88</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -660,6 +695,9 @@
       </c>
       <c r="E12" t="n">
         <v>2022656.65</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2016475.94</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>26168.58</v>
       </c>
+      <c r="G2" t="n">
+        <v>24252.49</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>370370.7</v>
       </c>
+      <c r="G3" t="n">
+        <v>369548.28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>535984.59</v>
       </c>
+      <c r="G4" t="n">
+        <v>539290.85</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>297343.22</v>
       </c>
+      <c r="G5" t="n">
+        <v>298359.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -568,6 +585,9 @@
       </c>
       <c r="F6" t="n">
         <v>121388.06</v>
+      </c>
+      <c r="G6" t="n">
+        <v>130653.7</v>
       </c>
     </row>
     <row r="7">
@@ -589,6 +609,9 @@
       <c r="F7" t="n">
         <v>253715.8</v>
       </c>
+      <c r="G7" t="n">
+        <v>257714.89</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -611,6 +634,9 @@
       <c r="F8" t="n">
         <v>303770.63</v>
       </c>
+      <c r="G8" t="n">
+        <v>302644.73</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -633,6 +659,9 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -655,6 +684,9 @@
       <c r="F10" t="n">
         <v>107734.36</v>
       </c>
+      <c r="G10" t="n">
+        <v>108851.53</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -677,6 +709,9 @@
       <c r="F11" t="n">
         <v>224052.88</v>
       </c>
+      <c r="G11" t="n">
+        <v>225701.74</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -698,6 +733,9 @@
       </c>
       <c r="F12" t="n">
         <v>2016475.94</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2031315.62</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>24252.49</v>
       </c>
+      <c r="H2" t="n">
+        <v>23718.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>369548.28</v>
       </c>
+      <c r="H3" t="n">
+        <v>369407.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>539290.85</v>
       </c>
+      <c r="H4" t="n">
+        <v>536324.6800000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>298359.15</v>
       </c>
+      <c r="H5" t="n">
+        <v>297192.72</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -588,6 +605,9 @@
       </c>
       <c r="G6" t="n">
         <v>130653.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>130560.68</v>
       </c>
     </row>
     <row r="7">
@@ -612,6 +632,9 @@
       <c r="G7" t="n">
         <v>257714.89</v>
       </c>
+      <c r="H7" t="n">
+        <v>252578.27</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -637,6 +660,9 @@
       <c r="G8" t="n">
         <v>302644.73</v>
       </c>
+      <c r="H8" t="n">
+        <v>300271.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -662,6 +688,9 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -687,6 +716,9 @@
       <c r="G10" t="n">
         <v>108851.53</v>
       </c>
+      <c r="H10" t="n">
+        <v>109957.97</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -712,6 +744,9 @@
       <c r="G11" t="n">
         <v>225701.74</v>
       </c>
+      <c r="H11" t="n">
+        <v>224445.79</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -736,6 +771,9 @@
       </c>
       <c r="G12" t="n">
         <v>2031315.62</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2020012.08</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>23718.8</v>
       </c>
+      <c r="I2" t="n">
+        <v>24325.79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>369407.06</v>
       </c>
+      <c r="I3" t="n">
+        <v>369091.94</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>536324.6800000001</v>
       </c>
+      <c r="I4" t="n">
+        <v>471855.81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>297192.72</v>
       </c>
+      <c r="I5" t="n">
+        <v>297560.28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -608,6 +625,9 @@
       </c>
       <c r="H6" t="n">
         <v>130560.68</v>
+      </c>
+      <c r="I6" t="n">
+        <v>133565.41</v>
       </c>
     </row>
     <row r="7">
@@ -635,6 +655,9 @@
       <c r="H7" t="n">
         <v>252578.27</v>
       </c>
+      <c r="I7" t="n">
+        <v>253109.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -663,6 +686,9 @@
       <c r="H8" t="n">
         <v>300271.9</v>
       </c>
+      <c r="I8" t="n">
+        <v>303019.88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -691,6 +717,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -719,6 +748,9 @@
       <c r="H10" t="n">
         <v>109957.97</v>
       </c>
+      <c r="I10" t="n">
+        <v>110470.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -747,6 +779,9 @@
       <c r="H11" t="n">
         <v>224445.79</v>
       </c>
+      <c r="I11" t="n">
+        <v>218110.91</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -774,6 +809,9 @@
       </c>
       <c r="H12" t="n">
         <v>2020012.08</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1962998.2</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>24325.79</v>
       </c>
+      <c r="J2" t="n">
+        <v>23201.26</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>369091.94</v>
       </c>
+      <c r="J3" t="n">
+        <v>368922.48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>471855.81</v>
       </c>
+      <c r="J4" t="n">
+        <v>471544.41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>297560.28</v>
       </c>
+      <c r="J5" t="n">
+        <v>297287.13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -628,6 +645,9 @@
       </c>
       <c r="I6" t="n">
         <v>133565.41</v>
+      </c>
+      <c r="J6" t="n">
+        <v>126407.18</v>
       </c>
     </row>
     <row r="7">
@@ -658,6 +678,9 @@
       <c r="I7" t="n">
         <v>253109.05</v>
       </c>
+      <c r="J7" t="n">
+        <v>252769.54</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -689,6 +712,9 @@
       <c r="I8" t="n">
         <v>303019.88</v>
       </c>
+      <c r="J8" t="n">
+        <v>301271.93</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -720,6 +746,9 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -751,6 +780,9 @@
       <c r="I10" t="n">
         <v>110470.04</v>
       </c>
+      <c r="J10" t="n">
+        <v>110292.35</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -782,6 +814,9 @@
       <c r="I11" t="n">
         <v>218110.91</v>
       </c>
+      <c r="J11" t="n">
+        <v>216855.14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -812,6 +847,9 @@
       </c>
       <c r="I12" t="n">
         <v>1962998.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1951696.28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>23201.26</v>
       </c>
+      <c r="K2" t="n">
+        <v>23786.43</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>368922.48</v>
       </c>
+      <c r="K3" t="n">
+        <v>369565</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>471544.41</v>
       </c>
+      <c r="K4" t="n">
+        <v>475204.43</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>297287.13</v>
       </c>
+      <c r="K5" t="n">
+        <v>297970.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,207 +666,266 @@
       <c r="J6" t="n">
         <v>126407.18</v>
       </c>
+      <c r="K6" t="n">
+        <v>133876.75</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>256290.21</v>
-      </c>
+          <t>FBA Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>256763.52</v>
-      </c>
-      <c r="E7" t="n">
-        <v>251890.73</v>
-      </c>
-      <c r="F7" t="n">
-        <v>253715.8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>257714.89</v>
-      </c>
-      <c r="H7" t="n">
-        <v>252578.27</v>
-      </c>
-      <c r="I7" t="n">
-        <v>253109.05</v>
-      </c>
-      <c r="J7" t="n">
-        <v>252769.54</v>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>41569.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>301155.97</v>
-      </c>
-      <c r="C8" t="n">
-        <v>303089.32</v>
-      </c>
-      <c r="D8" t="n">
-        <v>303045.01</v>
-      </c>
-      <c r="E8" t="n">
-        <v>302876.54</v>
-      </c>
-      <c r="F8" t="n">
-        <v>303770.63</v>
-      </c>
-      <c r="G8" t="n">
-        <v>302644.73</v>
-      </c>
-      <c r="H8" t="n">
-        <v>300271.9</v>
-      </c>
-      <c r="I8" t="n">
-        <v>303019.88</v>
-      </c>
-      <c r="J8" t="n">
-        <v>301271.93</v>
+          <t>FBA Calificado</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>35990.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9540.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
+        <v>256290.21</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>256763.52</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>251890.73</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>253715.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>257714.89</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>252578.27</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>253109.05</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>252769.54</v>
+      </c>
+      <c r="K9" t="n">
+        <v>256755.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138994.33</v>
+        <v>301155.97</v>
       </c>
       <c r="C10" t="n">
-        <v>139293</v>
+        <v>303089.32</v>
       </c>
       <c r="D10" t="n">
-        <v>109499.09</v>
+        <v>303045.01</v>
       </c>
       <c r="E10" t="n">
-        <v>109205.58</v>
+        <v>302876.54</v>
       </c>
       <c r="F10" t="n">
-        <v>107734.36</v>
+        <v>303770.63</v>
       </c>
       <c r="G10" t="n">
-        <v>108851.53</v>
+        <v>302644.73</v>
       </c>
       <c r="H10" t="n">
-        <v>109957.97</v>
+        <v>300271.9</v>
       </c>
       <c r="I10" t="n">
-        <v>110470.04</v>
+        <v>303019.88</v>
       </c>
       <c r="J10" t="n">
-        <v>110292.35</v>
+        <v>301271.93</v>
+      </c>
+      <c r="K10" t="n">
+        <v>299881.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>226074.09</v>
+        <v>9540.9</v>
       </c>
       <c r="C11" t="n">
-        <v>219923.3</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>225332</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>224739.63</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>224052.88</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>225701.74</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>224445.79</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>218110.91</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>216855.14</v>
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>HF Acciones Lideres</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>138994.33</v>
+      </c>
+      <c r="C12" t="n">
+        <v>139293</v>
+      </c>
+      <c r="D12" t="n">
+        <v>109499.09</v>
+      </c>
+      <c r="E12" t="n">
+        <v>109205.58</v>
+      </c>
+      <c r="F12" t="n">
+        <v>107734.36</v>
+      </c>
+      <c r="G12" t="n">
+        <v>108851.53</v>
+      </c>
+      <c r="H12" t="n">
+        <v>109957.97</v>
+      </c>
+      <c r="I12" t="n">
+        <v>110470.04</v>
+      </c>
+      <c r="J12" t="n">
+        <v>110292.35</v>
+      </c>
+      <c r="K12" t="n">
+        <v>109125.11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>226074.09</v>
+      </c>
+      <c r="C13" t="n">
+        <v>219923.3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>225332</v>
+      </c>
+      <c r="E13" t="n">
+        <v>224739.63</v>
+      </c>
+      <c r="F13" t="n">
+        <v>224052.88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>225701.74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>224445.79</v>
+      </c>
+      <c r="I13" t="n">
+        <v>218110.91</v>
+      </c>
+      <c r="J13" t="n">
+        <v>216855.14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>185793.28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B14" t="n">
         <v>2034666.84</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C14" t="n">
         <v>1759386.38</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>2027988.02</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E14" t="n">
         <v>2022656.65</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F14" t="n">
         <v>2016475.94</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>2031315.62</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>2020012.08</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>1962998.2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J14" t="n">
         <v>1951696.28</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2043726.03</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>23786.43</v>
       </c>
+      <c r="L2" t="n">
+        <v>24930.28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>369565</v>
       </c>
+      <c r="L3" t="n">
+        <v>368506.94</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>475204.43</v>
       </c>
+      <c r="L4" t="n">
+        <v>473025.88</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>297970.9</v>
       </c>
+      <c r="L5" t="n">
+        <v>297396.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -668,6 +685,9 @@
       </c>
       <c r="K6" t="n">
         <v>133876.75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>127527.26</v>
       </c>
     </row>
     <row r="7">
@@ -688,6 +708,9 @@
       <c r="K7" t="n">
         <v>41569.59</v>
       </c>
+      <c r="L7" t="n">
+        <v>4399.22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -707,6 +730,9 @@
       <c r="K8" t="n">
         <v>35990.42</v>
       </c>
+      <c r="L8" t="n">
+        <v>4156.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -742,6 +768,9 @@
       <c r="K9" t="n">
         <v>256755.68</v>
       </c>
+      <c r="L9" t="n">
+        <v>255418.93</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -779,6 +808,9 @@
       <c r="K10" t="n">
         <v>299881.72</v>
       </c>
+      <c r="L10" t="n">
+        <v>303971.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -816,6 +848,9 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -853,6 +888,9 @@
       <c r="K12" t="n">
         <v>109125.11</v>
       </c>
+      <c r="L12" t="n">
+        <v>110053.26</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -890,6 +928,9 @@
       <c r="K13" t="n">
         <v>185793.28</v>
       </c>
+      <c r="L13" t="n">
+        <v>179035.19</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -926,6 +967,9 @@
       </c>
       <c r="K14" t="n">
         <v>2043726.03</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1969387.12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/AGRO.xlsx
+++ b/backend/src/excel_handler/files/AGRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,7 @@
       <c r="L2" t="n">
         <v>24930.28</v>
       </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +575,9 @@
       <c r="L3" t="n">
         <v>368506.94</v>
       </c>
+      <c r="M3" t="n">
+        <v>370968.54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +618,9 @@
       <c r="L4" t="n">
         <v>473025.88</v>
       </c>
+      <c r="M4" t="n">
+        <v>473036.16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +661,9 @@
       <c r="L5" t="n">
         <v>297396.6</v>
       </c>
+      <c r="M5" t="n">
+        <v>298043.72</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -688,6 +703,9 @@
       </c>
       <c r="L6" t="n">
         <v>127527.26</v>
+      </c>
+      <c r="M6" t="n">
+        <v>131301.8</v>
       </c>
     </row>
     <row r="7">
@@ -711,6 +729,7 @@
       <c r="L7" t="n">
         <v>4399.22</v>
       </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -733,6 +752,7 @@
       <c r="L8" t="n">
         <v>4156.95</v>
       </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -771,6 +791,9 @@
       <c r="L9" t="n">
         <v>255418.93</v>
       </c>
+      <c r="M9" t="n">
+        <v>254477.82</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -811,6 +834,9 @@
       <c r="L10" t="n">
         <v>303971.8</v>
       </c>
+      <c r="M10" t="n">
+        <v>302733.55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -851,6 +877,9 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -891,6 +920,9 @@
       <c r="L12" t="n">
         <v>110053.26</v>
       </c>
+      <c r="M12" t="n">
+        <v>109979.57</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -931,6 +963,9 @@
       <c r="L13" t="n">
         <v>179035.19</v>
       </c>
+      <c r="M13" t="n">
+        <v>242567.64</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -970,6 +1005,9 @@
       </c>
       <c r="L14" t="n">
         <v>1969387.12</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1940541.16</v>
       </c>
     </row>
   </sheetData>
